--- a/项目看板/项目实施看板-南京分公司-180222.xlsx
+++ b/项目看板/项目实施看板-南京分公司-180222.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>更新日期：2018年02月22日</t>
   </si>
@@ -215,6 +215,9 @@
     <t>1.扫码点餐开台自动加入酱料的需求
 2.扫码点餐套餐口味做法不能弹屏
 3.微信预定点餐结账时需要把跳出人数界面取消</t>
+  </si>
+  <si>
+    <t>南京市建邺区小喜悦餐饮店</t>
   </si>
 </sst>
 </file>
@@ -222,12 +225,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,12 +278,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -294,155 +291,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -450,6 +298,155 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -496,31 +493,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,31 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,115 +655,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,54 +726,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -795,8 +744,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,16 +790,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,147 +841,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1046,13 +1043,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1067,10 +1058,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,11 +1393,11 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1436,8 +1427,8 @@
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="32.1" customHeight="1" spans="1:12">
       <c r="A2" s="12" t="s">
@@ -1463,8 +1454,8 @@
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -1522,10 +1513,10 @@
       <c r="J4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="28"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A5" s="18" t="s">
@@ -1556,8 +1547,8 @@
       <c r="J5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A6" s="18" t="s">
@@ -1572,10 +1563,10 @@
       <c r="D6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>60</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>12</v>
       </c>
       <c r="G6" s="20" t="s">
@@ -1588,8 +1579,8 @@
       <c r="J6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A7" s="18" t="s">
@@ -1604,10 +1595,10 @@
       <c r="D7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>100</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="19">
         <v>11</v>
       </c>
       <c r="G7" s="20" t="s">
@@ -1620,8 +1611,8 @@
       <c r="J7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A8" s="18" t="s">
@@ -1636,10 +1627,10 @@
       <c r="D8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>32</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <v>32</v>
       </c>
       <c r="G8" s="20" t="s">
@@ -1652,8 +1643,8 @@
       <c r="J8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A9" s="18" t="s">
@@ -1684,8 +1675,8 @@
       <c r="J9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A10" s="18" t="s">
@@ -1716,8 +1707,8 @@
       <c r="J10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A11" s="18" t="s">
@@ -1748,8 +1739,8 @@
       <c r="J11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A12" s="18" t="s">
@@ -1780,8 +1771,8 @@
       <c r="J12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A13" s="18" t="s">
@@ -1812,8 +1803,8 @@
       <c r="J13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A14" s="18" t="s">
@@ -1844,8 +1835,8 @@
       <c r="J14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="61" customHeight="1" spans="1:12">
       <c r="A15" s="18" t="s">
@@ -1876,258 +1867,284 @@
       <c r="J15" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="23"/>
+    <row r="16" ht="28.5" spans="1:10">
+      <c r="A16" s="21">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19">
+        <v>38542</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="20">
+        <v>50</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="23"/>
+      <c r="A17" s="21"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="23"/>
+      <c r="A18" s="21"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="21"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="23"/>
+      <c r="A20" s="21"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="23"/>
+      <c r="A21" s="21"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="23"/>
+      <c r="A22" s="21"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="23"/>
+      <c r="A23" s="21"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="23"/>
+      <c r="A24" s="21"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="23"/>
+      <c r="A25" s="21"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="23"/>
+      <c r="A26" s="21"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="23"/>
+      <c r="A27" s="21"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="23"/>
+      <c r="A28" s="21"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="23"/>
+      <c r="A29" s="21"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="23"/>
+      <c r="A30" s="21"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="23"/>
+      <c r="A31" s="21"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="23"/>
+      <c r="A32" s="21"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="23"/>
+      <c r="A33" s="21"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="23"/>
+      <c r="A34" s="21"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="23"/>
+      <c r="A35" s="21"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="23"/>
+      <c r="A36" s="21"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="23"/>
+      <c r="A37" s="21"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="23"/>
+      <c r="A38" s="21"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="23"/>
+      <c r="A39" s="21"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="23"/>
+      <c r="A40" s="21"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="23"/>
+      <c r="A41" s="21"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="23"/>
+      <c r="A42" s="21"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="23"/>
+      <c r="A43" s="21"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="23"/>
+      <c r="A44" s="21"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="23"/>
+      <c r="A45" s="21"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="21"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="21"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="21"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="23"/>
+      <c r="A49" s="21"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="23"/>
+      <c r="A50" s="21"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="23"/>
+      <c r="A51" s="21"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="23"/>
+      <c r="A52" s="21"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="23"/>
+      <c r="A53" s="21"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="23"/>
+      <c r="A54" s="21"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="23"/>
+      <c r="A55" s="21"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="23"/>
+      <c r="A56" s="21"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="23"/>
+      <c r="A57" s="21"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="23"/>
+      <c r="A58" s="21"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="23"/>
+      <c r="A59" s="21"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="23"/>
+      <c r="A60" s="21"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="23"/>
+      <c r="A61" s="21"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="23"/>
+      <c r="A62" s="21"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="23"/>
+      <c r="A63" s="21"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="23"/>
+      <c r="A64" s="21"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="23"/>
+      <c r="A65" s="21"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="23"/>
+      <c r="A66" s="21"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="23"/>
+      <c r="A67" s="21"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="23"/>
+      <c r="A68" s="21"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="23"/>
+      <c r="A69" s="21"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="23"/>
+      <c r="A70" s="21"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="23"/>
+      <c r="A71" s="21"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="23"/>
+      <c r="A72" s="21"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="23"/>
+      <c r="A73" s="21"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="23"/>
+      <c r="A74" s="21"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="23"/>
+      <c r="A75" s="21"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="23"/>
+      <c r="A76" s="21"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="23"/>
+      <c r="A77" s="21"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="23"/>
+      <c r="A78" s="21"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="23"/>
+      <c r="A79" s="21"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="23"/>
+      <c r="A80" s="21"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="23"/>
+      <c r="A81" s="21"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="23"/>
+      <c r="A82" s="21"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="23"/>
+      <c r="A83" s="21"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="23"/>
+      <c r="A84" s="21"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="23"/>
+      <c r="A85" s="21"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="23"/>
+      <c r="A86" s="21"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="23"/>
+      <c r="A87" s="21"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="23"/>
+      <c r="A88" s="21"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="23"/>
+      <c r="A89" s="21"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="23"/>
+      <c r="A90" s="21"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="23"/>
+      <c r="A91" s="21"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="23"/>
+      <c r="A92" s="21"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="23"/>
+      <c r="A93" s="21"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="23"/>
+      <c r="A94" s="21"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="23"/>
+      <c r="A95" s="21"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="23"/>
+      <c r="A96" s="21"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="23"/>
+      <c r="A97" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:L97"/>

--- a/项目看板/项目实施看板-南京分公司-180222.xlsx
+++ b/项目看板/项目实施看板-南京分公司-180222.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8370"/>
+    <workbookView windowWidth="20490" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="大项目实施看板" sheetId="1" r:id="rId1"/>
@@ -226,9 +226,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -294,159 +294,159 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -493,90 +493,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -584,96 +674,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,17 +726,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,16 +745,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,6 +776,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -790,49 +823,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,142 +841,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1393,11 +1393,11 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="B11:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1855,7 +1855,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>59</v>
@@ -2147,7 +2147,9 @@
       <c r="A97" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L97"/>
+  <autoFilter ref="A3:L97">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="11">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="H2:J2"/>
